--- a/001_プロジェクト管理/001_帳票/単体テスト仕様書.xlsx
+++ b/001_プロジェクト管理/001_帳票/単体テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\document\share\document\001_プロジェクト管理\001_帳票\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{658AA9E4-DC61-4E38-B32B-644E446C5E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0651275-D1F7-4D00-9986-359E4802C2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F6541F5E-7EC9-4B75-8D91-6FA5EE74B783}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="定数値" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">原本!$A$1:$R$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">原本!$A$1:$T$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -110,23 +110,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作手順</t>
-    <rPh sb="0" eb="4">
-      <t>ソウサテジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期待結果</t>
-    <rPh sb="0" eb="2">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -319,6 +302,44 @@
   </si>
   <si>
     <t>1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価手順</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価項目</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合No</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実施</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全シート</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,16 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -531,17 +543,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +582,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B234B38-46DC-4741-B1F8-F260E9E5E111}" name="テーブル1" displayName="テーブル1" ref="B2:B5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B234B38-46DC-4741-B1F8-F260E9E5E111}" name="ステータス" displayName="ステータス" ref="B2:B5" totalsRowShown="0">
   <autoFilter ref="B2:B5" xr:uid="{0B234B38-46DC-4741-B1F8-F260E9E5E111}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0C81EAB7-80CC-4C01-A464-32D77BD877BE}" name="ステータス"/>
@@ -877,97 +898,97 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="19"/>
+      <c r="C4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="19"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="19"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="19"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="19"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="19"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="22"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.4">
@@ -976,59 +997,59 @@
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.4">
       <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="18" t="str">
+        <v>29</v>
+      </c>
+      <c r="G12" s="22" t="str">
         <f>IF(INDEX(変更履歴!B3:B40, COUNTA(変更履歴!B3:B40)) = "", "", INDEX(変更履歴!B3:B40, COUNTA(変更履歴!B3:B40)))</f>
         <v>1.0</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.4">
       <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="18" t="str">
+        <v>28</v>
+      </c>
+      <c r="G13" s="22" t="str">
         <f>IF(INDEX(変更履歴!D3:D40, COUNTA(変更履歴!D3:D40)) = "", "", INDEX(変更履歴!D3:D40, COUNTA(変更履歴!D3:D40)))</f>
         <v/>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.4">
       <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="18" t="str">
+        <v>30</v>
+      </c>
+      <c r="G14" s="22" t="str">
         <f>IF(INDEX(変更履歴!C3:C40, COUNTA(変更履歴!C3:C40)) = "", "", INDEX(変更履歴!C3:C40, COUNTA(変更履歴!C3:C40)))</f>
         <v/>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.4">
       <c r="F15" s="14"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.4">
-      <c r="J17" s="25"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1037,47 +1058,47 @@
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.4">
       <c r="J18" s="14"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="20"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.4">
       <c r="J19" s="14"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="20"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" spans="6:15" x14ac:dyDescent="0.4">
       <c r="J20" s="14"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="20"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.4">
-      <c r="F23" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C4:L10"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="L18:L20"/>
     <mergeCell ref="N18:N20"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="M18:M20"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C4:L10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,7 +1124,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1119,12 +1140,14 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
-        <v>37</v>
+      <c r="B3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1450,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1439,19 +1462,19 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -1525,7 +1548,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">SUM(C4:C4)</f>
@@ -1552,25 +1575,25 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -1582,19 +1605,19 @@
         <v/>
       </c>
       <c r="C11" s="3">
-        <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"N3"))</f>
+        <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"O3"))</f>
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"N4"))</f>
+        <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"O4"))</f>
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"N5"))</f>
+        <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"O5"))</f>
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"N6"))</f>
+        <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"O6"))</f>
         <v>0</v>
       </c>
       <c r="G11" s="14"/>
@@ -1604,19 +1627,19 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:C13" ca="1" si="3">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"N3"))</f>
+        <f t="shared" ref="C12:C13" ca="1" si="3">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"O3"))</f>
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" ca="1" si="4">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"N4"))</f>
+        <f t="shared" ref="D12:D13" ca="1" si="4">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"O4"))</f>
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ref="E12:E13" ca="1" si="5">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"N5"))</f>
+        <f t="shared" ref="E12:E13" ca="1" si="5">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"O5"))</f>
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <f ca="1">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"N6"))</f>
+        <f t="shared" ref="F12:F13" ca="1" si="6">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"O6"))</f>
         <v>0</v>
       </c>
       <c r="G12" s="14"/>
@@ -1638,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <f ca="1">IF(B13 = "", 0, INDIRECT(B13&amp;"!"&amp;"N6"))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G13" s="14"/>
@@ -1647,22 +1670,22 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
         <f ca="1">SUM(C11)</f>
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:F14" ca="1" si="6">SUM(D11)</f>
+        <f t="shared" ref="D14:F14" ca="1" si="7">SUM(D11)</f>
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G14" s="14"/>
@@ -1678,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F016E630-31AF-4D7C-9465-CC09CE17CDE6}">
-  <dimension ref="B2:Q109"/>
+  <dimension ref="B2:S109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1694,112 +1717,114 @@
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="10.125" customWidth="1"/>
     <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10"/>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3">
         <f>COUNTIF(J$10:J$109, H3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="3">
+        <f>COUNTIF(P$10:P$109, N3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3">
-        <f>COUNTIF(O$10:O$109, M3)</f>
+      <c r="I4" s="3">
+        <f>COUNTIF(J$10:J$109, H4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="3">
+        <f>COUNTIF(P$10:P$109, N4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3">
+        <f>COUNTIFS(B10:B109, "&gt;0", J10:J109, "")</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="3">
+        <f>COUNTIFS(J10:J109, "=NG", B10:B109, "&gt;0", P10:P109, "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I6" si="0">COUNTIF(J$10:J$109, H4)</f>
+      <c r="I6" s="3">
+        <f>COUNTIF(J$10:J$109, H6)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:N6" si="1">COUNTIF(O$10:O$109, M4)</f>
+      <c r="O6" s="3">
+        <f>COUNTIF(P$10:P$109, N6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1813,45 +1838,52 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
-        <v>1</v>
+      <c r="S9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="str">
+        <f>IF(C10 = "", "", ROW() - 9)</f>
+        <v/>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1868,10 +1900,13 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
-        <v>2</v>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="str">
+        <f t="shared" ref="B11:B74" si="0">IF(C11 = "", "", ROW() - 9)</f>
+        <v/>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1888,10 +1923,13 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
-        <v>3</v>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1908,10 +1946,13 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
-        <v>4</v>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1928,10 +1969,13 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="3">
-        <v>5</v>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1948,10 +1992,13 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B15" s="3">
-        <v>6</v>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1968,10 +2015,13 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="3">
-        <v>7</v>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1988,10 +2038,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
-        <v>8</v>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2008,10 +2061,13 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="3">
-        <v>9</v>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2028,10 +2084,13 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="3">
-        <v>10</v>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2048,10 +2107,13 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="3">
-        <v>11</v>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2068,10 +2130,13 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="3">
-        <v>12</v>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2088,10 +2153,13 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="3">
-        <v>13</v>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2108,10 +2176,13 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="3">
-        <v>14</v>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2128,10 +2199,13 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="3">
-        <v>15</v>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2148,10 +2222,13 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B25" s="3">
-        <v>16</v>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2168,10 +2245,13 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B26" s="3">
-        <v>17</v>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2188,10 +2268,13 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B27" s="3">
-        <v>18</v>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2208,10 +2291,13 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B28" s="3">
-        <v>19</v>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2228,10 +2314,13 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="3">
-        <v>20</v>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2248,10 +2337,13 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="3">
-        <v>21</v>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2268,10 +2360,13 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="3">
-        <v>22</v>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2288,10 +2383,13 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="3">
-        <v>23</v>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2308,10 +2406,13 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B33" s="3">
-        <v>24</v>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2328,10 +2429,13 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B34" s="3">
-        <v>25</v>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2348,10 +2452,13 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B35" s="3">
-        <v>26</v>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2368,10 +2475,13 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B36" s="3">
-        <v>27</v>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2388,10 +2498,13 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B37" s="3">
-        <v>28</v>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2408,10 +2521,13 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="3">
-        <v>29</v>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2428,10 +2544,13 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B39" s="3">
-        <v>30</v>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2448,10 +2567,13 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B40" s="3">
-        <v>31</v>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2468,10 +2590,13 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B41" s="3">
-        <v>32</v>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2488,10 +2613,13 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B42" s="3">
-        <v>33</v>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2508,10 +2636,13 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B43" s="3">
-        <v>34</v>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2528,10 +2659,13 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B44" s="3">
-        <v>35</v>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2548,10 +2682,13 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B45" s="3">
-        <v>36</v>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2568,10 +2705,13 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B46" s="3">
-        <v>37</v>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2588,10 +2728,13 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B47" s="3">
-        <v>38</v>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2608,10 +2751,13 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B48" s="3">
-        <v>39</v>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2628,10 +2774,13 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B49" s="3">
-        <v>40</v>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2648,10 +2797,13 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B50" s="3">
-        <v>41</v>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2668,10 +2820,13 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B51" s="3">
-        <v>42</v>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2688,10 +2843,13 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B52" s="3">
-        <v>43</v>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2708,10 +2866,13 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B53" s="3">
-        <v>44</v>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2728,10 +2889,13 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B54" s="3">
-        <v>45</v>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2748,10 +2912,13 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B55" s="3">
-        <v>46</v>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2768,10 +2935,13 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B56" s="3">
-        <v>47</v>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2788,10 +2958,13 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B57" s="3">
-        <v>48</v>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2808,10 +2981,13 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B58" s="3">
-        <v>49</v>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2828,10 +3004,13 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B59" s="3">
-        <v>50</v>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2848,10 +3027,13 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B60" s="3">
-        <v>51</v>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2868,10 +3050,13 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B61" s="3">
-        <v>52</v>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2888,10 +3073,13 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B62" s="3">
-        <v>53</v>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2908,10 +3096,13 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B63" s="3">
-        <v>54</v>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2928,10 +3119,13 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B64" s="3">
-        <v>55</v>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2948,10 +3142,13 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B65" s="3">
-        <v>56</v>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2968,10 +3165,13 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B66" s="3">
-        <v>57</v>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2988,10 +3188,13 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B67" s="3">
-        <v>58</v>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3008,10 +3211,13 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B68" s="3">
-        <v>59</v>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3028,10 +3234,13 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B69" s="3">
-        <v>60</v>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B69" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3048,10 +3257,13 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B70" s="3">
-        <v>61</v>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B70" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -3068,10 +3280,13 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B71" s="3">
-        <v>62</v>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B71" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3088,10 +3303,13 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B72" s="3">
-        <v>63</v>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B72" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3108,10 +3326,13 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B73" s="3">
-        <v>64</v>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B73" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3128,10 +3349,13 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B74" s="3">
-        <v>65</v>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3148,10 +3372,13 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B75" s="3">
-        <v>66</v>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B75" s="3" t="str">
+        <f t="shared" ref="B75:B109" si="1">IF(C75 = "", "", ROW() - 9)</f>
+        <v/>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3168,10 +3395,13 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B76" s="3">
-        <v>67</v>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3188,10 +3418,13 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B77" s="3">
-        <v>68</v>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3208,10 +3441,13 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B78" s="3">
-        <v>69</v>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3228,10 +3464,13 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B79" s="3">
-        <v>70</v>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3248,10 +3487,13 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B80" s="3">
-        <v>71</v>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3268,10 +3510,13 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B81" s="3">
-        <v>72</v>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3288,10 +3533,13 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B82" s="3">
-        <v>73</v>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3308,10 +3556,13 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B83" s="3">
-        <v>74</v>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3328,10 +3579,13 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B84" s="3">
-        <v>75</v>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3348,10 +3602,13 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B85" s="3">
-        <v>76</v>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3368,10 +3625,13 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B86" s="3">
-        <v>77</v>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3388,10 +3648,13 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B87" s="3">
-        <v>78</v>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3408,10 +3671,13 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B88" s="3">
-        <v>79</v>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3428,10 +3694,13 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B89" s="3">
-        <v>80</v>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3448,10 +3717,13 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B90" s="3">
-        <v>81</v>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3468,10 +3740,13 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B91" s="3">
-        <v>82</v>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3488,10 +3763,13 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B92" s="3">
-        <v>83</v>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3508,10 +3786,13 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B93" s="3">
-        <v>84</v>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3528,10 +3809,13 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B94" s="3">
-        <v>85</v>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3548,10 +3832,13 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B95" s="3">
-        <v>86</v>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3568,10 +3855,13 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B96" s="3">
-        <v>87</v>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3588,10 +3878,13 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B97" s="3">
-        <v>88</v>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3608,10 +3901,13 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B98" s="3">
-        <v>89</v>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3628,10 +3924,13 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B99" s="3">
-        <v>90</v>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B99" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3648,10 +3947,13 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B100" s="3">
-        <v>91</v>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3668,10 +3970,13 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B101" s="3">
-        <v>92</v>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3688,10 +3993,13 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B102" s="3">
-        <v>93</v>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3708,10 +4016,13 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B103" s="3">
-        <v>94</v>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3728,10 +4039,13 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B104" s="3">
-        <v>95</v>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3748,10 +4062,13 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B105" s="3">
-        <v>96</v>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3768,10 +4085,13 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B106" s="3">
-        <v>97</v>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3788,10 +4108,13 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B107" s="3">
-        <v>98</v>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3808,10 +4131,13 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B108" s="3">
-        <v>99</v>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3828,10 +4154,13 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B109" s="3">
-        <v>100</v>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3848,11 +4177,13 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3860,7 +4191,7 @@
           <x14:formula1>
             <xm:f>定数値!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J109 O10:O109</xm:sqref>
+          <xm:sqref>P10:P109 J10:J109</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3881,22 +4212,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
